--- a/data/04-10-2025-nodes.xlsx
+++ b/data/04-10-2025-nodes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="608">
   <si>
     <t>Id</t>
   </si>
@@ -43,6 +43,24 @@
     <t>Updated At</t>
   </si>
   <si>
+    <t>aa038ff3-1123-4287-a7e3-a6cb014cc535</t>
+  </si>
+  <si>
+    <t>Bangooghly-I</t>
+  </si>
+  <si>
+    <t>de9ccacb-2080-400e-8c57-2e2cf729f724</t>
+  </si>
+  <si>
+    <t>4bc2a086-b131-47e1-9c20-f10650c0196d</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>9fa7e823-3c49-4cb5-8519-f80ce7f416e4</t>
   </si>
   <si>
@@ -52,15 +70,6 @@
     <t>6458a347-e80c-4a62-9357-551487a07e3a</t>
   </si>
   <si>
-    <t>4bc2a086-b131-47e1-9c20-f10650c0196d</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>247d7fc9-fd0d-4136-9185-c3d81fb88fe5</t>
   </si>
   <si>
@@ -136,15 +145,6 @@
     <t>BANDHAN SCHOOL</t>
   </si>
   <si>
-    <t>aa038ff3-1123-4287-a7e3-a6cb014cc535</t>
-  </si>
-  <si>
-    <t>Bangooghly-I</t>
-  </si>
-  <si>
-    <t>de9ccacb-2080-400e-8c57-2e2cf729f724</t>
-  </si>
-  <si>
     <t>14d97131-4d1e-497d-90e5-9288e605bcbd</t>
   </si>
   <si>
@@ -715,7 +715,7 @@
     <t>e2183603-55cd-4233-a19a-d1319cd6f50e</t>
   </si>
   <si>
-    <t>BJC SP OFFICE</t>
+    <t>BJC AERIAL JC SP OFFICE</t>
   </si>
   <si>
     <t>f77adbaf-26ac-4c18-b988-d8df8d6d6f29</t>
@@ -2303,7 +2303,7 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="30" customWidth="1"/>
-    <col min="5" max="6" width="12" customWidth="1"/>
+    <col min="5" max="6" width="13" customWidth="1"/>
     <col min="7" max="8" width="10" customWidth="1"/>
     <col min="9" max="10" width="30" customWidth="1"/>
   </cols>
@@ -2354,10 +2354,10 @@
         <v>13</v>
       </c>
       <c r="E2" s="4">
-        <v>22.3568</v>
+        <v>22.42832</v>
       </c>
       <c r="F2" s="4">
-        <v>88.4345</v>
+        <v>88.3734</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>14</v>
@@ -2369,7 +2369,7 @@
         <v>45889</v>
       </c>
       <c r="J2" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2385,11 +2385,11 @@
       <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
+      <c r="E3" s="7">
+        <v>22.3568</v>
+      </c>
+      <c r="F3" s="7">
+        <v>88.4345</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>14</v>
@@ -2401,7 +2401,7 @@
         <v>45889</v>
       </c>
       <c r="J3" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2418,10 +2418,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="4">
-        <v>22.460079</v>
+        <v>22.434794</v>
       </c>
       <c r="F4" s="4">
-        <v>88.423303</v>
+        <v>88.360447</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>14</v>
@@ -2433,7 +2433,7 @@
         <v>45889</v>
       </c>
       <c r="J4" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2449,11 +2449,11 @@
       <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
+      <c r="E5" s="7">
+        <v>22.460079</v>
+      </c>
+      <c r="F5" s="7">
+        <v>88.423303</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>14</v>
@@ -2465,7 +2465,7 @@
         <v>45889</v>
       </c>
       <c r="J5" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2482,10 +2482,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="4">
-        <v>22.4407</v>
+        <v>22.36704258</v>
       </c>
       <c r="F6" s="4">
-        <v>88.4393</v>
+        <v>88.42831924</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>14</v>
@@ -2497,7 +2497,7 @@
         <v>45889</v>
       </c>
       <c r="J6" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2508,7 +2508,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>13</v>
@@ -2529,18 +2529,18 @@
         <v>45889</v>
       </c>
       <c r="J7" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>13</v>
@@ -2561,27 +2561,27 @@
         <v>45889</v>
       </c>
       <c r="J8" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="7">
-        <v>22.3966</v>
+        <v>22.4407</v>
       </c>
       <c r="F9" s="7">
-        <v>88.4119</v>
+        <v>88.4393</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>14</v>
@@ -2593,27 +2593,27 @@
         <v>45889</v>
       </c>
       <c r="J9" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="4">
-        <v>22.442307</v>
+        <v>22.3966</v>
       </c>
       <c r="F10" s="4">
-        <v>88.37459</v>
+        <v>88.4119</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -2625,27 +2625,27 @@
         <v>45889</v>
       </c>
       <c r="J10" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E11" s="7">
-        <v>22.473276</v>
+        <v>22.442307</v>
       </c>
       <c r="F11" s="7">
-        <v>88.39016</v>
+        <v>88.37459</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>14</v>
@@ -2657,7 +2657,7 @@
         <v>45889</v>
       </c>
       <c r="J11" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2668,16 +2668,16 @@
         <v>40</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="E12" s="4">
+        <v>22.473276</v>
+      </c>
+      <c r="F12" s="4">
+        <v>88.39016</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>14</v>
@@ -2689,27 +2689,27 @@
         <v>45889</v>
       </c>
       <c r="J12" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="7">
-        <v>22.42832</v>
+        <v>22.425583</v>
       </c>
       <c r="F13" s="7">
-        <v>88.3734</v>
+        <v>88.405179</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -2721,7 +2721,7 @@
         <v>45889</v>
       </c>
       <c r="J13" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2732,7 +2732,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
@@ -2753,7 +2753,7 @@
         <v>45889</v>
       </c>
       <c r="J14" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2764,16 +2764,16 @@
         <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
+      <c r="E15" s="7">
+        <v>22.52107281</v>
+      </c>
+      <c r="F15" s="7">
+        <v>88.46072384</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>14</v>
@@ -2785,7 +2785,7 @@
         <v>45889</v>
       </c>
       <c r="J15" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
@@ -2817,7 +2817,7 @@
         <v>45889</v>
       </c>
       <c r="J16" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2828,7 +2828,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>13</v>
@@ -2849,7 +2849,7 @@
         <v>45889</v>
       </c>
       <c r="J17" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2860,7 +2860,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>13</v>
@@ -2881,7 +2881,7 @@
         <v>45889</v>
       </c>
       <c r="J18" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2892,16 +2892,16 @@
         <v>56</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>15</v>
+      <c r="E19" s="7">
+        <v>22.367001</v>
+      </c>
+      <c r="F19" s="7">
+        <v>88.427597</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -2913,7 +2913,7 @@
         <v>45889</v>
       </c>
       <c r="J19" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2929,11 +2929,11 @@
       <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>15</v>
+      <c r="E20" s="4">
+        <v>22.340646</v>
+      </c>
+      <c r="F20" s="4">
+        <v>88.453961</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>14</v>
@@ -2945,7 +2945,7 @@
         <v>45889</v>
       </c>
       <c r="J20" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
         <v>61</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>13</v>
@@ -2977,7 +2977,7 @@
         <v>45889</v>
       </c>
       <c r="J21" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2988,16 +2988,16 @@
         <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>15</v>
+      <c r="E22" s="4">
+        <v>22.36561051</v>
+      </c>
+      <c r="F22" s="4">
+        <v>88.42973189</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>14</v>
@@ -3009,7 +3009,7 @@
         <v>45889</v>
       </c>
       <c r="J22" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3020,16 +3020,16 @@
         <v>65</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>15</v>
+      <c r="E23" s="7">
+        <v>22.35968</v>
+      </c>
+      <c r="F23" s="7">
+        <v>88.392867</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>14</v>
@@ -3041,7 +3041,7 @@
         <v>45889</v>
       </c>
       <c r="J23" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3052,16 +3052,16 @@
         <v>67</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>15</v>
+      <c r="E24" s="4">
+        <v>22.3594</v>
+      </c>
+      <c r="F24" s="4">
+        <v>88.39286</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>14</v>
@@ -3073,7 +3073,7 @@
         <v>45889</v>
       </c>
       <c r="J24" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>13</v>
@@ -3105,7 +3105,7 @@
         <v>45889</v>
       </c>
       <c r="J25" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>71</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -3137,7 +3137,7 @@
         <v>45889</v>
       </c>
       <c r="J26" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <v>73</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>13</v>
@@ -3169,7 +3169,7 @@
         <v>45889</v>
       </c>
       <c r="J27" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>75</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
@@ -3201,7 +3201,7 @@
         <v>45889</v>
       </c>
       <c r="J28" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
         <v>77</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>13</v>
@@ -3233,7 +3233,7 @@
         <v>45889</v>
       </c>
       <c r="J29" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
         <v>79</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
@@ -3265,7 +3265,7 @@
         <v>45889</v>
       </c>
       <c r="J30" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
         <v>81</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>13</v>
@@ -3297,7 +3297,7 @@
         <v>45889</v>
       </c>
       <c r="J31" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3308,7 +3308,7 @@
         <v>83</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
@@ -3329,7 +3329,7 @@
         <v>45889</v>
       </c>
       <c r="J32" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3340,7 +3340,7 @@
         <v>85</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>13</v>
@@ -3361,7 +3361,7 @@
         <v>45889</v>
       </c>
       <c r="J33" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3372,7 +3372,7 @@
         <v>87</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>13</v>
@@ -3393,7 +3393,7 @@
         <v>45889</v>
       </c>
       <c r="J34" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3404,7 +3404,7 @@
         <v>89</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>13</v>
@@ -3425,7 +3425,7 @@
         <v>45889</v>
       </c>
       <c r="J35" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3436,16 +3436,16 @@
         <v>91</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>15</v>
+      <c r="E36" s="4">
+        <v>22.36111822</v>
+      </c>
+      <c r="F36" s="4">
+        <v>88.43219002</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>14</v>
@@ -3457,7 +3457,7 @@
         <v>45889</v>
       </c>
       <c r="J36" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3468,7 +3468,7 @@
         <v>93</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>13</v>
@@ -3489,7 +3489,7 @@
         <v>45889</v>
       </c>
       <c r="J37" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3500,7 +3500,7 @@
         <v>95</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
@@ -3521,7 +3521,7 @@
         <v>45889</v>
       </c>
       <c r="J38" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3532,7 +3532,7 @@
         <v>97</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>13</v>
@@ -3553,7 +3553,7 @@
         <v>45889</v>
       </c>
       <c r="J39" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3564,16 +3564,16 @@
         <v>99</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>15</v>
+      <c r="E40" s="4">
+        <v>22.35970226</v>
+      </c>
+      <c r="F40" s="4">
+        <v>88.39375451</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>14</v>
@@ -3585,7 +3585,7 @@
         <v>45889</v>
       </c>
       <c r="J40" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3596,7 +3596,7 @@
         <v>101</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>13</v>
@@ -3617,7 +3617,7 @@
         <v>45889</v>
       </c>
       <c r="J41" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
         <v>103</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>13</v>
@@ -3649,7 +3649,7 @@
         <v>45889</v>
       </c>
       <c r="J42" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3660,7 +3660,7 @@
         <v>105</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>13</v>
@@ -3681,7 +3681,7 @@
         <v>45889</v>
       </c>
       <c r="J43" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3692,7 +3692,7 @@
         <v>107</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>13</v>
@@ -3713,7 +3713,7 @@
         <v>45889</v>
       </c>
       <c r="J44" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3724,7 +3724,7 @@
         <v>109</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>13</v>
@@ -3745,7 +3745,7 @@
         <v>45889</v>
       </c>
       <c r="J45" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3777,7 +3777,7 @@
         <v>45889</v>
       </c>
       <c r="J46" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3788,7 +3788,7 @@
         <v>114</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>13</v>
@@ -3809,7 +3809,7 @@
         <v>45889</v>
       </c>
       <c r="J47" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3820,7 +3820,7 @@
         <v>116</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>13</v>
@@ -3841,7 +3841,7 @@
         <v>45889</v>
       </c>
       <c r="J48" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
         <v>118</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>13</v>
@@ -3873,7 +3873,7 @@
         <v>45889</v>
       </c>
       <c r="J49" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3884,7 +3884,7 @@
         <v>120</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>13</v>
@@ -3905,7 +3905,7 @@
         <v>45889</v>
       </c>
       <c r="J50" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3916,7 +3916,7 @@
         <v>122</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>13</v>
@@ -3937,7 +3937,7 @@
         <v>45889</v>
       </c>
       <c r="J51" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3948,16 +3948,16 @@
         <v>124</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>15</v>
+      <c r="E52" s="4">
+        <v>22.42993939</v>
+      </c>
+      <c r="F52" s="4">
+        <v>88.40447212</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>14</v>
@@ -3969,7 +3969,7 @@
         <v>45889</v>
       </c>
       <c r="J52" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3980,16 +3980,16 @@
         <v>126</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>15</v>
+      <c r="E53" s="7">
+        <v>22.42680133</v>
+      </c>
+      <c r="F53" s="7">
+        <v>88.41581041</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>14</v>
@@ -4001,7 +4001,7 @@
         <v>45889</v>
       </c>
       <c r="J53" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4012,7 +4012,7 @@
         <v>128</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>13</v>
@@ -4033,7 +4033,7 @@
         <v>45889</v>
       </c>
       <c r="J54" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4044,16 +4044,16 @@
         <v>130</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>15</v>
+      <c r="E55" s="7">
+        <v>22.40008564</v>
+      </c>
+      <c r="F55" s="7">
+        <v>88.48981414</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>14</v>
@@ -4065,7 +4065,7 @@
         <v>45889</v>
       </c>
       <c r="J55" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4076,16 +4076,16 @@
         <v>132</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>15</v>
+      <c r="E56" s="4">
+        <v>22.424273</v>
+      </c>
+      <c r="F56" s="4">
+        <v>88.402669</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>14</v>
@@ -4097,7 +4097,7 @@
         <v>45889</v>
       </c>
       <c r="J56" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4108,16 +4108,16 @@
         <v>134</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>15</v>
+      <c r="E57" s="7">
+        <v>22.46586675</v>
+      </c>
+      <c r="F57" s="7">
+        <v>88.39283461</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>14</v>
@@ -4129,7 +4129,7 @@
         <v>45889</v>
       </c>
       <c r="J57" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4140,16 +4140,16 @@
         <v>136</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>15</v>
+      <c r="E58" s="4">
+        <v>22.41651987</v>
+      </c>
+      <c r="F58" s="4">
+        <v>88.40675184</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>14</v>
@@ -4161,7 +4161,7 @@
         <v>45889</v>
       </c>
       <c r="J58" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4172,16 +4172,16 @@
         <v>138</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>15</v>
+      <c r="E59" s="7">
+        <v>22.36737531</v>
+      </c>
+      <c r="F59" s="7">
+        <v>88.40215958</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>14</v>
@@ -4193,7 +4193,7 @@
         <v>45889</v>
       </c>
       <c r="J59" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4204,16 +4204,16 @@
         <v>140</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>15</v>
+      <c r="E60" s="4">
+        <v>22.36737531</v>
+      </c>
+      <c r="F60" s="4">
+        <v>88.40215958</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>14</v>
@@ -4225,7 +4225,7 @@
         <v>45889</v>
       </c>
       <c r="J60" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4236,7 +4236,7 @@
         <v>142</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>13</v>
@@ -4257,7 +4257,7 @@
         <v>45889</v>
       </c>
       <c r="J61" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4268,7 +4268,7 @@
         <v>144</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>13</v>
@@ -4289,7 +4289,7 @@
         <v>45889</v>
       </c>
       <c r="J62" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4300,16 +4300,16 @@
         <v>146</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>15</v>
+      <c r="E63" s="7">
+        <v>22.46705</v>
+      </c>
+      <c r="F63" s="7">
+        <v>88.44253</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>14</v>
@@ -4321,7 +4321,7 @@
         <v>45889</v>
       </c>
       <c r="J63" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4332,7 +4332,7 @@
         <v>148</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>13</v>
@@ -4353,7 +4353,7 @@
         <v>45889</v>
       </c>
       <c r="J64" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4364,7 +4364,7 @@
         <v>150</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>13</v>
@@ -4385,7 +4385,7 @@
         <v>45889</v>
       </c>
       <c r="J65" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4396,7 +4396,7 @@
         <v>152</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>13</v>
@@ -4417,7 +4417,7 @@
         <v>45889</v>
       </c>
       <c r="J66" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4428,16 +4428,16 @@
         <v>154</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>15</v>
+      <c r="E67" s="7">
+        <v>22.345748</v>
+      </c>
+      <c r="F67" s="7">
+        <v>88.458034</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>14</v>
@@ -4449,7 +4449,7 @@
         <v>45889</v>
       </c>
       <c r="J67" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4460,16 +4460,16 @@
         <v>156</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>15</v>
+      <c r="E68" s="4">
+        <v>22.41717538</v>
+      </c>
+      <c r="F68" s="4">
+        <v>88.40907651</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>14</v>
@@ -4481,7 +4481,7 @@
         <v>45889</v>
       </c>
       <c r="J68" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4492,16 +4492,16 @@
         <v>158</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>15</v>
+      <c r="E69" s="7">
+        <v>22.42368</v>
+      </c>
+      <c r="F69" s="7">
+        <v>88.403121</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>14</v>
@@ -4513,7 +4513,7 @@
         <v>45889</v>
       </c>
       <c r="J69" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4524,16 +4524,16 @@
         <v>160</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>15</v>
+      <c r="E70" s="4">
+        <v>22.44102742</v>
+      </c>
+      <c r="F70" s="4">
+        <v>88.43721455</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>14</v>
@@ -4545,7 +4545,7 @@
         <v>45889</v>
       </c>
       <c r="J70" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4556,16 +4556,16 @@
         <v>162</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>15</v>
+      <c r="E71" s="7">
+        <v>22.44023194</v>
+      </c>
+      <c r="F71" s="7">
+        <v>88.44012115</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>14</v>
@@ -4577,7 +4577,7 @@
         <v>45889</v>
       </c>
       <c r="J71" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4588,16 +4588,16 @@
         <v>164</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>15</v>
+      <c r="E72" s="4">
+        <v>22.36918358</v>
+      </c>
+      <c r="F72" s="4">
+        <v>88.42697818</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>14</v>
@@ -4609,7 +4609,7 @@
         <v>45889</v>
       </c>
       <c r="J72" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4620,7 +4620,7 @@
         <v>166</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>13</v>
@@ -4641,7 +4641,7 @@
         <v>45889</v>
       </c>
       <c r="J73" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4652,7 +4652,7 @@
         <v>168</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>13</v>
@@ -4673,7 +4673,7 @@
         <v>45889</v>
       </c>
       <c r="J74" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4684,7 +4684,7 @@
         <v>170</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>13</v>
@@ -4705,7 +4705,7 @@
         <v>45889</v>
       </c>
       <c r="J75" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4716,7 +4716,7 @@
         <v>172</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>13</v>
@@ -4737,7 +4737,7 @@
         <v>45889</v>
       </c>
       <c r="J76" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4748,7 +4748,7 @@
         <v>174</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>13</v>
@@ -4769,7 +4769,7 @@
         <v>45889</v>
       </c>
       <c r="J77" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4780,7 +4780,7 @@
         <v>176</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>13</v>
@@ -4801,7 +4801,7 @@
         <v>45889</v>
       </c>
       <c r="J78" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4812,7 +4812,7 @@
         <v>178</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>13</v>
@@ -4833,7 +4833,7 @@
         <v>45889</v>
       </c>
       <c r="J79" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4844,7 +4844,7 @@
         <v>180</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>13</v>
@@ -4865,7 +4865,7 @@
         <v>45889</v>
       </c>
       <c r="J80" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4876,7 +4876,7 @@
         <v>182</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>13</v>
@@ -4897,7 +4897,7 @@
         <v>45889</v>
       </c>
       <c r="J81" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4908,7 +4908,7 @@
         <v>184</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>13</v>
@@ -4929,7 +4929,7 @@
         <v>45889</v>
       </c>
       <c r="J82" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="83" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4940,7 +4940,7 @@
         <v>186</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>13</v>
@@ -4961,7 +4961,7 @@
         <v>45889</v>
       </c>
       <c r="J83" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="84" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4972,7 +4972,7 @@
         <v>188</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>13</v>
@@ -4993,7 +4993,7 @@
         <v>45889</v>
       </c>
       <c r="J84" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="85" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5004,16 +5004,16 @@
         <v>190</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>15</v>
+      <c r="E85" s="7">
+        <v>22.44836103</v>
+      </c>
+      <c r="F85" s="7">
+        <v>88.38656752</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>14</v>
@@ -5025,7 +5025,7 @@
         <v>45889</v>
       </c>
       <c r="J85" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="86" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5036,7 +5036,7 @@
         <v>192</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>13</v>
@@ -5057,7 +5057,7 @@
         <v>45889</v>
       </c>
       <c r="J86" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="87" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5068,7 +5068,7 @@
         <v>194</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>13</v>
@@ -5089,7 +5089,7 @@
         <v>45889</v>
       </c>
       <c r="J87" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="88" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5100,16 +5100,16 @@
         <v>196</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>15</v>
+      <c r="E88" s="4">
+        <v>22.34579685</v>
+      </c>
+      <c r="F88" s="4">
+        <v>88.45805149</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>14</v>
@@ -5121,7 +5121,7 @@
         <v>45889</v>
       </c>
       <c r="J88" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="89" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5132,7 +5132,7 @@
         <v>198</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>13</v>
@@ -5153,7 +5153,7 @@
         <v>45889</v>
       </c>
       <c r="J89" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="90" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5164,16 +5164,16 @@
         <v>200</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>15</v>
+      <c r="E90" s="4">
+        <v>22.41255965</v>
+      </c>
+      <c r="F90" s="4">
+        <v>88.34795815</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>14</v>
@@ -5185,7 +5185,7 @@
         <v>45889</v>
       </c>
       <c r="J90" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="91" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5196,7 +5196,7 @@
         <v>202</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>13</v>
@@ -5217,7 +5217,7 @@
         <v>45889</v>
       </c>
       <c r="J91" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="92" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5228,7 +5228,7 @@
         <v>204</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>13</v>
@@ -5249,7 +5249,7 @@
         <v>45889</v>
       </c>
       <c r="J92" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="93" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5260,7 +5260,7 @@
         <v>206</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>13</v>
@@ -5281,7 +5281,7 @@
         <v>45889</v>
       </c>
       <c r="J93" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="94" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5292,7 +5292,7 @@
         <v>208</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>13</v>
@@ -5313,7 +5313,7 @@
         <v>45889</v>
       </c>
       <c r="J94" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="95" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5324,16 +5324,16 @@
         <v>210</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>15</v>
+      <c r="E95" s="7">
+        <v>22.455345</v>
+      </c>
+      <c r="F95" s="7">
+        <v>88.43814</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>14</v>
@@ -5345,7 +5345,7 @@
         <v>45889</v>
       </c>
       <c r="J95" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5356,7 +5356,7 @@
         <v>212</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>13</v>
@@ -5377,7 +5377,7 @@
         <v>45889</v>
       </c>
       <c r="J96" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="97" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5388,7 +5388,7 @@
         <v>214</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>13</v>
@@ -5409,7 +5409,7 @@
         <v>45889</v>
       </c>
       <c r="J97" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="98" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5420,7 +5420,7 @@
         <v>216</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>13</v>
@@ -5441,7 +5441,7 @@
         <v>45889</v>
       </c>
       <c r="J98" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="99" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5452,7 +5452,7 @@
         <v>218</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>13</v>
@@ -5473,7 +5473,7 @@
         <v>45889</v>
       </c>
       <c r="J99" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="100" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5484,7 +5484,7 @@
         <v>220</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>13</v>
@@ -5505,7 +5505,7 @@
         <v>45889</v>
       </c>
       <c r="J100" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="101" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5516,7 +5516,7 @@
         <v>222</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>13</v>
@@ -5537,7 +5537,7 @@
         <v>45889</v>
       </c>
       <c r="J101" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="102" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5548,7 +5548,7 @@
         <v>224</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>13</v>
@@ -5569,7 +5569,7 @@
         <v>45889</v>
       </c>
       <c r="J102" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="103" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5580,7 +5580,7 @@
         <v>226</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>13</v>
@@ -5601,7 +5601,7 @@
         <v>45889</v>
       </c>
       <c r="J103" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="104" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5612,7 +5612,7 @@
         <v>228</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>13</v>
@@ -5633,7 +5633,7 @@
         <v>45889</v>
       </c>
       <c r="J104" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="105" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5644,16 +5644,16 @@
         <v>230</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>15</v>
+      <c r="E105" s="7">
+        <v>22.43895279</v>
+      </c>
+      <c r="F105" s="7">
+        <v>88.39697817</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>14</v>
@@ -5665,7 +5665,7 @@
         <v>45889</v>
       </c>
       <c r="J105" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5676,16 +5676,16 @@
         <v>232</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>15</v>
+      <c r="E106" s="4">
+        <v>22.44189597</v>
+      </c>
+      <c r="F106" s="4">
+        <v>88.43319061</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>14</v>
@@ -5697,7 +5697,7 @@
         <v>45889</v>
       </c>
       <c r="J106" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="107" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5708,16 +5708,16 @@
         <v>234</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>15</v>
+      <c r="E107" s="7">
+        <v>22.35982547</v>
+      </c>
+      <c r="F107" s="7">
+        <v>88.43275307</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>14</v>
@@ -5729,7 +5729,7 @@
         <v>45889</v>
       </c>
       <c r="J107" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5740,16 +5740,16 @@
         <v>236</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>15</v>
+      <c r="E108" s="4">
+        <v>22.44103766</v>
+      </c>
+      <c r="F108" s="4">
+        <v>88.39635843</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>14</v>
@@ -5761,7 +5761,7 @@
         <v>45889</v>
       </c>
       <c r="J108" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="109" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5772,7 +5772,7 @@
         <v>238</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>13</v>
@@ -5793,7 +5793,7 @@
         <v>45889</v>
       </c>
       <c r="J109" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="110" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5804,16 +5804,16 @@
         <v>240</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>15</v>
+      <c r="E110" s="4">
+        <v>22.34891425</v>
+      </c>
+      <c r="F110" s="4">
+        <v>88.45983625</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>14</v>
@@ -5825,7 +5825,7 @@
         <v>45889</v>
       </c>
       <c r="J110" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="111" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5836,7 +5836,7 @@
         <v>242</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>13</v>
@@ -5857,7 +5857,7 @@
         <v>45889</v>
       </c>
       <c r="J111" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="112" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5868,7 +5868,7 @@
         <v>244</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>13</v>
@@ -5889,7 +5889,7 @@
         <v>45889</v>
       </c>
       <c r="J112" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="113" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5900,7 +5900,7 @@
         <v>246</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>13</v>
@@ -5921,7 +5921,7 @@
         <v>45889</v>
       </c>
       <c r="J113" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="114" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5932,7 +5932,7 @@
         <v>248</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>13</v>
@@ -5953,7 +5953,7 @@
         <v>45889</v>
       </c>
       <c r="J114" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="115" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5964,7 +5964,7 @@
         <v>250</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>13</v>
@@ -5985,7 +5985,7 @@
         <v>45889</v>
       </c>
       <c r="J115" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="116" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5996,7 +5996,7 @@
         <v>252</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>13</v>
@@ -6017,7 +6017,7 @@
         <v>45889</v>
       </c>
       <c r="J116" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="117" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6028,7 +6028,7 @@
         <v>254</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>13</v>
@@ -6049,7 +6049,7 @@
         <v>45889</v>
       </c>
       <c r="J117" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="118" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6060,7 +6060,7 @@
         <v>256</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>13</v>
@@ -6081,7 +6081,7 @@
         <v>45889</v>
       </c>
       <c r="J118" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="119" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6092,7 +6092,7 @@
         <v>258</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>13</v>
@@ -6113,7 +6113,7 @@
         <v>45889</v>
       </c>
       <c r="J119" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="120" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6124,7 +6124,7 @@
         <v>260</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>13</v>
@@ -6145,7 +6145,7 @@
         <v>45889</v>
       </c>
       <c r="J120" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="121" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6156,7 +6156,7 @@
         <v>262</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>13</v>
@@ -6177,7 +6177,7 @@
         <v>45889</v>
       </c>
       <c r="J121" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="122" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6188,16 +6188,16 @@
         <v>264</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>15</v>
+      <c r="E122" s="4">
+        <v>22.44277</v>
+      </c>
+      <c r="F122" s="4">
+        <v>88.3668</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>14</v>
@@ -6209,7 +6209,7 @@
         <v>45889</v>
       </c>
       <c r="J122" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="123" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6220,16 +6220,16 @@
         <v>266</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>15</v>
+      <c r="E123" s="7">
+        <v>22.45959189</v>
+      </c>
+      <c r="F123" s="7">
+        <v>88.36461627</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>14</v>
@@ -6241,7 +6241,7 @@
         <v>45889</v>
       </c>
       <c r="J123" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="124" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6252,7 +6252,7 @@
         <v>268</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>13</v>
@@ -6273,7 +6273,7 @@
         <v>45889</v>
       </c>
       <c r="J124" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="125" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6284,16 +6284,16 @@
         <v>270</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>15</v>
+      <c r="E125" s="7">
+        <v>22.36420811</v>
+      </c>
+      <c r="F125" s="7">
+        <v>88.43135966</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>14</v>
@@ -6305,7 +6305,7 @@
         <v>45889</v>
       </c>
       <c r="J125" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="126" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6316,7 +6316,7 @@
         <v>272</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>13</v>
@@ -6337,7 +6337,7 @@
         <v>45889</v>
       </c>
       <c r="J126" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="127" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6348,7 +6348,7 @@
         <v>274</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>13</v>
@@ -6369,7 +6369,7 @@
         <v>45889</v>
       </c>
       <c r="J127" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="128" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6380,7 +6380,7 @@
         <v>276</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>13</v>
@@ -6401,7 +6401,7 @@
         <v>45889</v>
       </c>
       <c r="J128" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="129" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6412,7 +6412,7 @@
         <v>278</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>13</v>
@@ -6433,7 +6433,7 @@
         <v>45889</v>
       </c>
       <c r="J129" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="130" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6444,7 +6444,7 @@
         <v>280</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>13</v>
@@ -6465,7 +6465,7 @@
         <v>45889</v>
       </c>
       <c r="J130" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="131" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6476,16 +6476,16 @@
         <v>282</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E131" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>15</v>
+      <c r="E131" s="7">
+        <v>22.43440015</v>
+      </c>
+      <c r="F131" s="7">
+        <v>88.3992399</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>14</v>
@@ -6497,7 +6497,7 @@
         <v>45889</v>
       </c>
       <c r="J131" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="132" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6508,7 +6508,7 @@
         <v>284</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>13</v>
@@ -6529,7 +6529,7 @@
         <v>45889</v>
       </c>
       <c r="J132" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="133" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6540,7 +6540,7 @@
         <v>286</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>13</v>
@@ -6561,7 +6561,7 @@
         <v>45889</v>
       </c>
       <c r="J133" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="134" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6572,7 +6572,7 @@
         <v>288</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>13</v>
@@ -6593,7 +6593,7 @@
         <v>45889</v>
       </c>
       <c r="J134" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="135" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6604,7 +6604,7 @@
         <v>290</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>13</v>
@@ -6625,7 +6625,7 @@
         <v>45889</v>
       </c>
       <c r="J135" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="136" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6636,16 +6636,16 @@
         <v>292</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>15</v>
+      <c r="E136" s="4">
+        <v>22.44325019</v>
+      </c>
+      <c r="F136" s="4">
+        <v>88.41609867</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>14</v>
@@ -6657,7 +6657,7 @@
         <v>45889</v>
       </c>
       <c r="J136" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="137" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6668,7 +6668,7 @@
         <v>294</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>13</v>
@@ -6689,7 +6689,7 @@
         <v>45889</v>
       </c>
       <c r="J137" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="138" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6700,16 +6700,16 @@
         <v>296</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="E138" s="4">
+        <v>22.467477</v>
+      </c>
+      <c r="F138" s="4">
+        <v>88.378222</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>14</v>
@@ -6721,7 +6721,7 @@
         <v>45889</v>
       </c>
       <c r="J138" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="139" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6732,7 +6732,7 @@
         <v>298</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>13</v>
@@ -6753,7 +6753,7 @@
         <v>45889</v>
       </c>
       <c r="J139" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="140" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6764,7 +6764,7 @@
         <v>300</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>13</v>
@@ -6785,7 +6785,7 @@
         <v>45889</v>
       </c>
       <c r="J140" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="141" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6796,7 +6796,7 @@
         <v>302</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>13</v>
@@ -6817,7 +6817,7 @@
         <v>45889</v>
       </c>
       <c r="J141" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="142" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6828,7 +6828,7 @@
         <v>304</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>13</v>
@@ -6849,7 +6849,7 @@
         <v>45889</v>
       </c>
       <c r="J142" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="143" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6860,7 +6860,7 @@
         <v>306</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>13</v>
@@ -6881,7 +6881,7 @@
         <v>45889</v>
       </c>
       <c r="J143" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="144" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6892,7 +6892,7 @@
         <v>308</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>13</v>
@@ -6913,7 +6913,7 @@
         <v>45889</v>
       </c>
       <c r="J144" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="145" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6924,16 +6924,16 @@
         <v>310</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>15</v>
+      <c r="E145" s="7">
+        <v>22.34569001</v>
+      </c>
+      <c r="F145" s="7">
+        <v>88.46400377</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>14</v>
@@ -6945,7 +6945,7 @@
         <v>45889</v>
       </c>
       <c r="J145" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="146" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6956,7 +6956,7 @@
         <v>312</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>13</v>
@@ -6977,7 +6977,7 @@
         <v>45889</v>
       </c>
       <c r="J146" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="147" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6988,7 +6988,7 @@
         <v>314</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>13</v>
@@ -7009,7 +7009,7 @@
         <v>45889</v>
       </c>
       <c r="J147" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="148" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7020,7 +7020,7 @@
         <v>316</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>13</v>
@@ -7041,7 +7041,7 @@
         <v>45889</v>
       </c>
       <c r="J148" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="149" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7052,7 +7052,7 @@
         <v>318</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>13</v>
@@ -7073,7 +7073,7 @@
         <v>45889</v>
       </c>
       <c r="J149" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="150" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7084,7 +7084,7 @@
         <v>320</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>13</v>
@@ -7105,7 +7105,7 @@
         <v>45889</v>
       </c>
       <c r="J150" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="151" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7116,10 +7116,10 @@
         <v>322</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E151" s="7">
         <v>22.497056</v>
@@ -7137,7 +7137,7 @@
         <v>45889</v>
       </c>
       <c r="J151" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="152" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7148,7 +7148,7 @@
         <v>324</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>13</v>
@@ -7169,7 +7169,7 @@
         <v>45889</v>
       </c>
       <c r="J152" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="153" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7180,7 +7180,7 @@
         <v>326</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>13</v>
@@ -7201,7 +7201,7 @@
         <v>45889</v>
       </c>
       <c r="J153" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="154" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7212,16 +7212,16 @@
         <v>328</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E154" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>15</v>
+      <c r="E154" s="4">
+        <v>22.36603205</v>
+      </c>
+      <c r="F154" s="4">
+        <v>88.36153672</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>14</v>
@@ -7233,7 +7233,7 @@
         <v>45889</v>
       </c>
       <c r="J154" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="155" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7244,7 +7244,7 @@
         <v>331</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>13</v>
@@ -7265,7 +7265,7 @@
         <v>45889</v>
       </c>
       <c r="J155" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="156" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7276,7 +7276,7 @@
         <v>333</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>13</v>
@@ -7297,7 +7297,7 @@
         <v>45889</v>
       </c>
       <c r="J156" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="157" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7308,7 +7308,7 @@
         <v>335</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>13</v>
@@ -7329,7 +7329,7 @@
         <v>45889</v>
       </c>
       <c r="J157" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="158" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7340,7 +7340,7 @@
         <v>337</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>13</v>
@@ -7361,7 +7361,7 @@
         <v>45889</v>
       </c>
       <c r="J158" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="159" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7372,7 +7372,7 @@
         <v>339</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>13</v>
@@ -7393,7 +7393,7 @@
         <v>45889</v>
       </c>
       <c r="J159" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="160" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7404,7 +7404,7 @@
         <v>341</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>13</v>
@@ -7425,7 +7425,7 @@
         <v>45889</v>
       </c>
       <c r="J160" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="161" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7436,7 +7436,7 @@
         <v>343</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>13</v>
@@ -7457,7 +7457,7 @@
         <v>45889</v>
       </c>
       <c r="J161" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="162" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7468,7 +7468,7 @@
         <v>345</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>13</v>
@@ -7489,7 +7489,7 @@
         <v>45889</v>
       </c>
       <c r="J162" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="163" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7500,16 +7500,16 @@
         <v>347</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E163" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>15</v>
+      <c r="E163" s="7">
+        <v>22.49224359</v>
+      </c>
+      <c r="F163" s="7">
+        <v>88.46013218</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>14</v>
@@ -7521,7 +7521,7 @@
         <v>45889</v>
       </c>
       <c r="J163" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="164" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7532,16 +7532,16 @@
         <v>349</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E164" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>15</v>
+      <c r="E164" s="4">
+        <v>22.49236505</v>
+      </c>
+      <c r="F164" s="4">
+        <v>88.46006557</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>14</v>
@@ -7553,7 +7553,7 @@
         <v>45889</v>
       </c>
       <c r="J164" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="165" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7564,7 +7564,7 @@
         <v>351</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>13</v>
@@ -7585,7 +7585,7 @@
         <v>45889</v>
       </c>
       <c r="J165" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="166" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7596,7 +7596,7 @@
         <v>353</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>13</v>
@@ -7617,7 +7617,7 @@
         <v>45889</v>
       </c>
       <c r="J166" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="167" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7628,7 +7628,7 @@
         <v>355</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>13</v>
@@ -7649,7 +7649,7 @@
         <v>45889</v>
       </c>
       <c r="J167" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="168" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7660,16 +7660,16 @@
         <v>357</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E168" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>15</v>
+      <c r="E168" s="4">
+        <v>22.45987</v>
+      </c>
+      <c r="F168" s="4">
+        <v>88.4414</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>14</v>
@@ -7681,7 +7681,7 @@
         <v>45889</v>
       </c>
       <c r="J168" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="169" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7692,16 +7692,16 @@
         <v>359</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E169" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>15</v>
+      <c r="E169" s="7">
+        <v>22.45090175</v>
+      </c>
+      <c r="F169" s="7">
+        <v>88.39221554</v>
       </c>
       <c r="G169" s="7" t="s">
         <v>14</v>
@@ -7713,7 +7713,7 @@
         <v>45889</v>
       </c>
       <c r="J169" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="170" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7724,7 +7724,7 @@
         <v>361</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>13</v>
@@ -7745,7 +7745,7 @@
         <v>45889</v>
       </c>
       <c r="J170" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="171" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7756,7 +7756,7 @@
         <v>363</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>13</v>
@@ -7777,7 +7777,7 @@
         <v>45889</v>
       </c>
       <c r="J171" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="172" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7788,7 +7788,7 @@
         <v>365</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>13</v>
@@ -7809,7 +7809,7 @@
         <v>45889</v>
       </c>
       <c r="J172" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="173" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7820,7 +7820,7 @@
         <v>367</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>13</v>
@@ -7841,7 +7841,7 @@
         <v>45889</v>
       </c>
       <c r="J173" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="174" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7852,16 +7852,16 @@
         <v>369</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E174" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>15</v>
+      <c r="E174" s="4">
+        <v>22.363099</v>
+      </c>
+      <c r="F174" s="4">
+        <v>88.446927</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>14</v>
@@ -7873,7 +7873,7 @@
         <v>45889</v>
       </c>
       <c r="J174" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="175" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7884,16 +7884,16 @@
         <v>371</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E175" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>15</v>
+      <c r="E175" s="7">
+        <v>22.4580762</v>
+      </c>
+      <c r="F175" s="7">
+        <v>88.388265</v>
       </c>
       <c r="G175" s="7" t="s">
         <v>14</v>
@@ -7905,7 +7905,7 @@
         <v>45889</v>
       </c>
       <c r="J175" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="176" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7916,7 +7916,7 @@
         <v>373</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>13</v>
@@ -7937,7 +7937,7 @@
         <v>45889</v>
       </c>
       <c r="J176" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="177" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7948,7 +7948,7 @@
         <v>375</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>13</v>
@@ -7969,7 +7969,7 @@
         <v>45889</v>
       </c>
       <c r="J177" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="178" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7980,7 +7980,7 @@
         <v>377</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>13</v>
@@ -8001,7 +8001,7 @@
         <v>45889</v>
       </c>
       <c r="J178" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="179" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8012,7 +8012,7 @@
         <v>379</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>13</v>
@@ -8033,7 +8033,7 @@
         <v>45889</v>
       </c>
       <c r="J179" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="180" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8044,7 +8044,7 @@
         <v>381</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>13</v>
@@ -8065,7 +8065,7 @@
         <v>45889</v>
       </c>
       <c r="J180" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="181" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8076,7 +8076,7 @@
         <v>383</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>13</v>
@@ -8097,7 +8097,7 @@
         <v>45889</v>
       </c>
       <c r="J181" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="182" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8108,7 +8108,7 @@
         <v>385</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>13</v>
@@ -8129,7 +8129,7 @@
         <v>45889</v>
       </c>
       <c r="J182" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="183" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8140,7 +8140,7 @@
         <v>387</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>13</v>
@@ -8161,7 +8161,7 @@
         <v>45889</v>
       </c>
       <c r="J183" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="184" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8172,16 +8172,16 @@
         <v>389</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E184" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>15</v>
+      <c r="E184" s="4">
+        <v>22.477233</v>
+      </c>
+      <c r="F184" s="4">
+        <v>88.349783</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>14</v>
@@ -8193,7 +8193,7 @@
         <v>45889</v>
       </c>
       <c r="J184" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="185" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8204,7 +8204,7 @@
         <v>391</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>13</v>
@@ -8225,7 +8225,7 @@
         <v>45889</v>
       </c>
       <c r="J185" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="186" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8236,7 +8236,7 @@
         <v>393</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>13</v>
@@ -8257,7 +8257,7 @@
         <v>45889</v>
       </c>
       <c r="J186" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="187" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8268,7 +8268,7 @@
         <v>395</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>13</v>
@@ -8289,7 +8289,7 @@
         <v>45889</v>
       </c>
       <c r="J187" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="188" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8300,16 +8300,16 @@
         <v>397</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>15</v>
+      <c r="E188" s="4">
+        <v>22.42391899</v>
+      </c>
+      <c r="F188" s="4">
+        <v>88.41910533</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>14</v>
@@ -8321,7 +8321,7 @@
         <v>45889</v>
       </c>
       <c r="J188" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="189" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8332,7 +8332,7 @@
         <v>399</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>13</v>
@@ -8353,7 +8353,7 @@
         <v>45889</v>
       </c>
       <c r="J189" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="190" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8364,7 +8364,7 @@
         <v>401</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>13</v>
@@ -8385,7 +8385,7 @@
         <v>45889</v>
       </c>
       <c r="J190" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="191" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8396,7 +8396,7 @@
         <v>403</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>13</v>
@@ -8417,7 +8417,7 @@
         <v>45889</v>
       </c>
       <c r="J191" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="192" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8428,7 +8428,7 @@
         <v>405</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>13</v>
@@ -8449,7 +8449,7 @@
         <v>45889</v>
       </c>
       <c r="J192" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="193" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8460,7 +8460,7 @@
         <v>407</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>13</v>
@@ -8481,7 +8481,7 @@
         <v>45889</v>
       </c>
       <c r="J193" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="194" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8492,7 +8492,7 @@
         <v>409</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>13</v>
@@ -8513,7 +8513,7 @@
         <v>45889</v>
       </c>
       <c r="J194" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="195" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8524,7 +8524,7 @@
         <v>411</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>13</v>
@@ -8545,7 +8545,7 @@
         <v>45889</v>
       </c>
       <c r="J195" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="196" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8556,7 +8556,7 @@
         <v>413</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>13</v>
@@ -8577,7 +8577,7 @@
         <v>45889</v>
       </c>
       <c r="J196" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="197" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8588,7 +8588,7 @@
         <v>415</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D197" s="7" t="s">
         <v>13</v>
@@ -8609,7 +8609,7 @@
         <v>45889</v>
       </c>
       <c r="J197" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="198" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8620,7 +8620,7 @@
         <v>417</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>13</v>
@@ -8641,7 +8641,7 @@
         <v>45889</v>
       </c>
       <c r="J198" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="199" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8652,16 +8652,16 @@
         <v>419</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D199" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="E199" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>15</v>
+      <c r="E199" s="7">
+        <v>22.4128</v>
+      </c>
+      <c r="F199" s="7">
+        <v>88.34873</v>
       </c>
       <c r="G199" s="7" t="s">
         <v>14</v>
@@ -8673,7 +8673,7 @@
         <v>45889</v>
       </c>
       <c r="J199" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="200" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8684,7 +8684,7 @@
         <v>421</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>13</v>
@@ -8705,7 +8705,7 @@
         <v>45889</v>
       </c>
       <c r="J200" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="201" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8716,16 +8716,16 @@
         <v>423</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E201" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>15</v>
+      <c r="E201" s="7">
+        <v>22.36924235</v>
+      </c>
+      <c r="F201" s="7">
+        <v>88.42718402</v>
       </c>
       <c r="G201" s="7" t="s">
         <v>14</v>
@@ -8737,7 +8737,7 @@
         <v>45889</v>
       </c>
       <c r="J201" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="202" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8748,7 +8748,7 @@
         <v>425</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>13</v>
@@ -8769,7 +8769,7 @@
         <v>45889</v>
       </c>
       <c r="J202" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="203" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8780,7 +8780,7 @@
         <v>427</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>13</v>
@@ -8801,7 +8801,7 @@
         <v>45889</v>
       </c>
       <c r="J203" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="204" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8812,16 +8812,16 @@
         <v>429</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E204" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>15</v>
+      <c r="E204" s="4">
+        <v>22.37152891</v>
+      </c>
+      <c r="F204" s="4">
+        <v>88.42457658</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>14</v>
@@ -8833,7 +8833,7 @@
         <v>45889</v>
       </c>
       <c r="J204" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="205" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8844,7 +8844,7 @@
         <v>431</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>13</v>
@@ -8865,7 +8865,7 @@
         <v>45889</v>
       </c>
       <c r="J205" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="206" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8876,7 +8876,7 @@
         <v>433</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>13</v>
@@ -8897,7 +8897,7 @@
         <v>45889</v>
       </c>
       <c r="J206" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="207" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8908,7 +8908,7 @@
         <v>435</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>13</v>
@@ -8929,7 +8929,7 @@
         <v>45889</v>
       </c>
       <c r="J207" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="208" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8940,7 +8940,7 @@
         <v>437</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>13</v>
@@ -8961,7 +8961,7 @@
         <v>45889</v>
       </c>
       <c r="J208" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="209" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8972,7 +8972,7 @@
         <v>439</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>13</v>
@@ -8993,7 +8993,7 @@
         <v>45889</v>
       </c>
       <c r="J209" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="210" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9004,7 +9004,7 @@
         <v>441</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>13</v>
@@ -9025,7 +9025,7 @@
         <v>45889</v>
       </c>
       <c r="J210" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="211" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9036,7 +9036,7 @@
         <v>443</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>13</v>
@@ -9057,7 +9057,7 @@
         <v>45889</v>
       </c>
       <c r="J211" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="212" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9068,7 +9068,7 @@
         <v>445</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>13</v>
@@ -9089,7 +9089,7 @@
         <v>45889</v>
       </c>
       <c r="J212" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="213" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9100,7 +9100,7 @@
         <v>447</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>13</v>
@@ -9121,7 +9121,7 @@
         <v>45889</v>
       </c>
       <c r="J213" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="214" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9132,7 +9132,7 @@
         <v>449</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>13</v>
@@ -9153,7 +9153,7 @@
         <v>45889</v>
       </c>
       <c r="J214" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="215" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9164,7 +9164,7 @@
         <v>451</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D215" s="7" t="s">
         <v>13</v>
@@ -9185,7 +9185,7 @@
         <v>45889</v>
       </c>
       <c r="J215" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="216" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9196,16 +9196,16 @@
         <v>453</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="E216" s="4">
+        <v>22.48300348</v>
+      </c>
+      <c r="F216" s="4">
+        <v>88.35414639</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>14</v>
@@ -9217,7 +9217,7 @@
         <v>45889</v>
       </c>
       <c r="J216" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="217" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9228,7 +9228,7 @@
         <v>455</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>13</v>
@@ -9249,7 +9249,7 @@
         <v>45889</v>
       </c>
       <c r="J217" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="218" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9260,7 +9260,7 @@
         <v>457</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>13</v>
@@ -9281,7 +9281,7 @@
         <v>45889</v>
       </c>
       <c r="J218" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="219" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9292,7 +9292,7 @@
         <v>459</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>13</v>
@@ -9313,7 +9313,7 @@
         <v>45889</v>
       </c>
       <c r="J219" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="220" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9324,7 +9324,7 @@
         <v>461</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>13</v>
@@ -9345,7 +9345,7 @@
         <v>45889</v>
       </c>
       <c r="J220" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="221" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9356,7 +9356,7 @@
         <v>463</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>13</v>
@@ -9377,7 +9377,7 @@
         <v>45889</v>
       </c>
       <c r="J221" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="222" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9388,7 +9388,7 @@
         <v>465</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>13</v>
@@ -9409,7 +9409,7 @@
         <v>45889</v>
       </c>
       <c r="J222" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="223" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9420,7 +9420,7 @@
         <v>467</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>13</v>
@@ -9441,7 +9441,7 @@
         <v>45889</v>
       </c>
       <c r="J223" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="224" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9452,7 +9452,7 @@
         <v>469</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>13</v>
@@ -9473,7 +9473,7 @@
         <v>45889</v>
       </c>
       <c r="J224" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="225" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9484,7 +9484,7 @@
         <v>471</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>13</v>
@@ -9505,7 +9505,7 @@
         <v>45889</v>
       </c>
       <c r="J225" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="226" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9516,16 +9516,16 @@
         <v>473</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E226" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>15</v>
+      <c r="E226" s="4">
+        <v>22.44014856</v>
+      </c>
+      <c r="F226" s="4">
+        <v>88.39723324</v>
       </c>
       <c r="G226" s="4" t="s">
         <v>14</v>
@@ -9537,7 +9537,7 @@
         <v>45889</v>
       </c>
       <c r="J226" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="227" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9548,7 +9548,7 @@
         <v>475</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>13</v>
@@ -9569,7 +9569,7 @@
         <v>45889</v>
       </c>
       <c r="J227" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="228" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9580,7 +9580,7 @@
         <v>477</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>13</v>
@@ -9601,7 +9601,7 @@
         <v>45889</v>
       </c>
       <c r="J228" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="229" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9612,7 +9612,7 @@
         <v>479</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>13</v>
@@ -9633,7 +9633,7 @@
         <v>45889</v>
       </c>
       <c r="J229" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="230" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9644,7 +9644,7 @@
         <v>481</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>13</v>
@@ -9665,7 +9665,7 @@
         <v>45889</v>
       </c>
       <c r="J230" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="231" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9676,7 +9676,7 @@
         <v>483</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>13</v>
@@ -9697,7 +9697,7 @@
         <v>45889</v>
       </c>
       <c r="J231" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="232" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9708,7 +9708,7 @@
         <v>485</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>13</v>
@@ -9729,7 +9729,7 @@
         <v>45889</v>
       </c>
       <c r="J232" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="233" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9761,7 +9761,7 @@
         <v>45889</v>
       </c>
       <c r="J233" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="234" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9772,7 +9772,7 @@
         <v>489</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>13</v>
@@ -9793,7 +9793,7 @@
         <v>45889</v>
       </c>
       <c r="J234" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="235" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9804,7 +9804,7 @@
         <v>491</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D235" s="7" t="s">
         <v>13</v>
@@ -9825,7 +9825,7 @@
         <v>45889</v>
       </c>
       <c r="J235" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="236" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9836,7 +9836,7 @@
         <v>493</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>13</v>
@@ -9857,7 +9857,7 @@
         <v>45889</v>
       </c>
       <c r="J236" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="237" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9868,7 +9868,7 @@
         <v>495</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D237" s="7" t="s">
         <v>13</v>
@@ -9889,7 +9889,7 @@
         <v>45889</v>
       </c>
       <c r="J237" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="238" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9900,7 +9900,7 @@
         <v>497</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>13</v>
@@ -9921,7 +9921,7 @@
         <v>45889</v>
       </c>
       <c r="J238" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="239" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9932,16 +9932,16 @@
         <v>499</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D239" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E239" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F239" s="7" t="s">
-        <v>15</v>
+      <c r="E239" s="7">
+        <v>22.442091</v>
+      </c>
+      <c r="F239" s="7">
+        <v>88.433108</v>
       </c>
       <c r="G239" s="7" t="s">
         <v>14</v>
@@ -9953,7 +9953,7 @@
         <v>45889</v>
       </c>
       <c r="J239" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="240" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9964,7 +9964,7 @@
         <v>501</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>13</v>
@@ -9985,7 +9985,7 @@
         <v>45889</v>
       </c>
       <c r="J240" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="241" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9996,7 +9996,7 @@
         <v>503</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D241" s="7" t="s">
         <v>13</v>
@@ -10017,7 +10017,7 @@
         <v>45889</v>
       </c>
       <c r="J241" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="242" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10028,7 +10028,7 @@
         <v>505</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>13</v>
@@ -10049,7 +10049,7 @@
         <v>45889</v>
       </c>
       <c r="J242" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="243" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10060,7 +10060,7 @@
         <v>507</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D243" s="7" t="s">
         <v>13</v>
@@ -10081,7 +10081,7 @@
         <v>45889</v>
       </c>
       <c r="J243" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="244" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10092,7 +10092,7 @@
         <v>509</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>13</v>
@@ -10113,7 +10113,7 @@
         <v>45889</v>
       </c>
       <c r="J244" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="245" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10124,16 +10124,16 @@
         <v>511</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D245" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E245" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F245" s="7" t="s">
-        <v>15</v>
+      <c r="E245" s="7">
+        <v>22.35982547</v>
+      </c>
+      <c r="F245" s="7">
+        <v>88.43275307</v>
       </c>
       <c r="G245" s="7" t="s">
         <v>14</v>
@@ -10145,7 +10145,7 @@
         <v>45889</v>
       </c>
       <c r="J245" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="246" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10156,7 +10156,7 @@
         <v>513</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>13</v>
@@ -10177,7 +10177,7 @@
         <v>45889</v>
       </c>
       <c r="J246" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="247" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10188,7 +10188,7 @@
         <v>515</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D247" s="7" t="s">
         <v>13</v>
@@ -10209,7 +10209,7 @@
         <v>45889</v>
       </c>
       <c r="J247" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="248" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10220,7 +10220,7 @@
         <v>517</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>13</v>
@@ -10241,7 +10241,7 @@
         <v>45889</v>
       </c>
       <c r="J248" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="249" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10252,7 +10252,7 @@
         <v>519</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D249" s="7" t="s">
         <v>13</v>
@@ -10273,7 +10273,7 @@
         <v>45889</v>
       </c>
       <c r="J249" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="250" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10284,7 +10284,7 @@
         <v>521</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>13</v>
@@ -10305,7 +10305,7 @@
         <v>45889</v>
       </c>
       <c r="J250" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="251" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10316,16 +10316,16 @@
         <v>523</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D251" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E251" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F251" s="7" t="s">
-        <v>15</v>
+      <c r="E251" s="7">
+        <v>22.44022965</v>
+      </c>
+      <c r="F251" s="7">
+        <v>88.39587116</v>
       </c>
       <c r="G251" s="7" t="s">
         <v>14</v>
@@ -10337,7 +10337,7 @@
         <v>45889</v>
       </c>
       <c r="J251" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="252" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10348,16 +10348,16 @@
         <v>525</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E252" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F252" s="4" t="s">
-        <v>15</v>
+      <c r="E252" s="4">
+        <v>22.444821</v>
+      </c>
+      <c r="F252" s="4">
+        <v>88.388835</v>
       </c>
       <c r="G252" s="4" t="s">
         <v>14</v>
@@ -10369,7 +10369,7 @@
         <v>45889</v>
       </c>
       <c r="J252" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="253" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10380,7 +10380,7 @@
         <v>527</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D253" s="7" t="s">
         <v>13</v>
@@ -10401,7 +10401,7 @@
         <v>45889</v>
       </c>
       <c r="J253" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="254" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10412,7 +10412,7 @@
         <v>529</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>13</v>
@@ -10433,7 +10433,7 @@
         <v>45889</v>
       </c>
       <c r="J254" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="255" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10444,16 +10444,16 @@
         <v>531</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D255" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E255" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F255" s="7" t="s">
-        <v>15</v>
+      <c r="E255" s="7">
+        <v>22.3744973</v>
+      </c>
+      <c r="F255" s="7">
+        <v>88.42516743</v>
       </c>
       <c r="G255" s="7" t="s">
         <v>14</v>
@@ -10465,7 +10465,7 @@
         <v>45889</v>
       </c>
       <c r="J255" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="256" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10476,7 +10476,7 @@
         <v>533</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>13</v>
@@ -10497,7 +10497,7 @@
         <v>45889</v>
       </c>
       <c r="J256" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="257" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10508,16 +10508,16 @@
         <v>535</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D257" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E257" s="7">
-        <v>0</v>
+        <v>22.46661513</v>
       </c>
       <c r="F257" s="7">
-        <v>0</v>
+        <v>88.41186425</v>
       </c>
       <c r="G257" s="7" t="s">
         <v>14</v>
@@ -10529,7 +10529,7 @@
         <v>45889</v>
       </c>
       <c r="J257" s="8">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="258" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10540,7 +10540,7 @@
         <v>537</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>13</v>
@@ -10561,7 +10561,7 @@
         <v>45890</v>
       </c>
       <c r="J258" s="5">
-        <v>45920</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="259" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10572,7 +10572,7 @@
         <v>539</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D259" s="7" t="s">
         <v>13</v>
@@ -10593,7 +10593,7 @@
         <v>45891</v>
       </c>
       <c r="J259" s="8">
-        <v>45921</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="260" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10604,7 +10604,7 @@
         <v>541</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>13</v>
@@ -10625,7 +10625,7 @@
         <v>45892</v>
       </c>
       <c r="J260" s="5">
-        <v>45922</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="261" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10636,7 +10636,7 @@
         <v>543</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D261" s="7" t="s">
         <v>13</v>
@@ -10657,7 +10657,7 @@
         <v>45893</v>
       </c>
       <c r="J261" s="8">
-        <v>45923</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="262" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10668,7 +10668,7 @@
         <v>545</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>13</v>
@@ -10689,7 +10689,7 @@
         <v>45894</v>
       </c>
       <c r="J262" s="5">
-        <v>45924</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="263" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10700,7 +10700,7 @@
         <v>547</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D263" s="7" t="s">
         <v>13</v>
@@ -10721,7 +10721,7 @@
         <v>45895</v>
       </c>
       <c r="J263" s="8">
-        <v>45925</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="264" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10732,7 +10732,7 @@
         <v>549</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>13</v>
@@ -10753,7 +10753,7 @@
         <v>45896</v>
       </c>
       <c r="J264" s="5">
-        <v>45926</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="265" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10764,7 +10764,7 @@
         <v>551</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D265" s="7" t="s">
         <v>13</v>
@@ -10785,7 +10785,7 @@
         <v>45897</v>
       </c>
       <c r="J265" s="8">
-        <v>45927</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="266" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10796,7 +10796,7 @@
         <v>553</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>13</v>
@@ -10817,7 +10817,7 @@
         <v>45898</v>
       </c>
       <c r="J266" s="5">
-        <v>45928</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="267" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10828,7 +10828,7 @@
         <v>555</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D267" s="7" t="s">
         <v>13</v>
@@ -10849,7 +10849,7 @@
         <v>45899</v>
       </c>
       <c r="J267" s="8">
-        <v>45929</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="268" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10860,7 +10860,7 @@
         <v>557</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>13</v>
@@ -10881,7 +10881,7 @@
         <v>45900</v>
       </c>
       <c r="J268" s="5">
-        <v>45930</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="269" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10892,7 +10892,7 @@
         <v>559</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D269" s="7" t="s">
         <v>13</v>
@@ -10913,7 +10913,7 @@
         <v>45901</v>
       </c>
       <c r="J269" s="8">
-        <v>45931</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="270" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10924,7 +10924,7 @@
         <v>561</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>13</v>
@@ -10945,7 +10945,7 @@
         <v>45902</v>
       </c>
       <c r="J270" s="5">
-        <v>45932</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="271" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10956,7 +10956,7 @@
         <v>563</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D271" s="7" t="s">
         <v>13</v>
@@ -10977,7 +10977,7 @@
         <v>45903</v>
       </c>
       <c r="J271" s="8">
-        <v>45933</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="272" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10988,7 +10988,7 @@
         <v>565</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>13</v>
@@ -11009,7 +11009,7 @@
         <v>45904</v>
       </c>
       <c r="J272" s="5">
-        <v>45934</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="273" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11020,7 +11020,7 @@
         <v>567</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D273" s="7" t="s">
         <v>13</v>
@@ -11041,7 +11041,7 @@
         <v>45905</v>
       </c>
       <c r="J273" s="8">
-        <v>45935</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="274" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11052,7 +11052,7 @@
         <v>569</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>13</v>
@@ -11073,7 +11073,7 @@
         <v>45906</v>
       </c>
       <c r="J274" s="5">
-        <v>45936</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="275" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11084,7 +11084,7 @@
         <v>571</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D275" s="7" t="s">
         <v>13</v>
@@ -11105,7 +11105,7 @@
         <v>45907</v>
       </c>
       <c r="J275" s="8">
-        <v>45937</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="276" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11116,7 +11116,7 @@
         <v>573</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>13</v>
@@ -11137,7 +11137,7 @@
         <v>45908</v>
       </c>
       <c r="J276" s="5">
-        <v>45938</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="277" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11148,7 +11148,7 @@
         <v>575</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D277" s="7" t="s">
         <v>13</v>
@@ -11169,7 +11169,7 @@
         <v>45909</v>
       </c>
       <c r="J277" s="8">
-        <v>45939</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="278" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11180,7 +11180,7 @@
         <v>577</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>13</v>
@@ -11201,7 +11201,7 @@
         <v>45910</v>
       </c>
       <c r="J278" s="5">
-        <v>45940</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="279" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11212,7 +11212,7 @@
         <v>579</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>13</v>
@@ -11233,7 +11233,7 @@
         <v>45911</v>
       </c>
       <c r="J279" s="8">
-        <v>45941</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="280" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11244,7 +11244,7 @@
         <v>581</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>13</v>
@@ -11265,7 +11265,7 @@
         <v>45912</v>
       </c>
       <c r="J280" s="5">
-        <v>45942</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="281" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11276,7 +11276,7 @@
         <v>583</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D281" s="7" t="s">
         <v>13</v>
@@ -11297,7 +11297,7 @@
         <v>45913</v>
       </c>
       <c r="J281" s="8">
-        <v>45943</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="282" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11308,7 +11308,7 @@
         <v>585</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>13</v>
@@ -11329,7 +11329,7 @@
         <v>45914</v>
       </c>
       <c r="J282" s="5">
-        <v>45944</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="283" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11340,7 +11340,7 @@
         <v>587</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D283" s="7" t="s">
         <v>13</v>
@@ -11361,7 +11361,7 @@
         <v>45915</v>
       </c>
       <c r="J283" s="8">
-        <v>45945</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="284" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11372,7 +11372,7 @@
         <v>589</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>13</v>
@@ -11393,7 +11393,7 @@
         <v>45916</v>
       </c>
       <c r="J284" s="5">
-        <v>45946</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="285" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11404,7 +11404,7 @@
         <v>591</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D285" s="7" t="s">
         <v>13</v>
@@ -11425,7 +11425,7 @@
         <v>45917</v>
       </c>
       <c r="J285" s="8">
-        <v>45947</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="286" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11436,7 +11436,7 @@
         <v>593</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>13</v>
@@ -11457,7 +11457,7 @@
         <v>45918</v>
       </c>
       <c r="J286" s="5">
-        <v>45948</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="287" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11468,7 +11468,7 @@
         <v>595</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D287" s="7" t="s">
         <v>13</v>
@@ -11489,7 +11489,7 @@
         <v>45919</v>
       </c>
       <c r="J287" s="8">
-        <v>45949</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="288" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11500,7 +11500,7 @@
         <v>597</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>13</v>
@@ -11521,7 +11521,7 @@
         <v>45920</v>
       </c>
       <c r="J288" s="5">
-        <v>45950</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="289" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11532,7 +11532,7 @@
         <v>599</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D289" s="7" t="s">
         <v>13</v>
@@ -11553,7 +11553,7 @@
         <v>45921</v>
       </c>
       <c r="J289" s="8">
-        <v>45951</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="290" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11564,7 +11564,7 @@
         <v>601</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>13</v>
@@ -11585,7 +11585,7 @@
         <v>45922</v>
       </c>
       <c r="J290" s="5">
-        <v>45952</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="291" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11596,7 +11596,7 @@
         <v>603</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D291" s="7" t="s">
         <v>13</v>
@@ -11617,7 +11617,7 @@
         <v>45923</v>
       </c>
       <c r="J291" s="8">
-        <v>45953</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="292" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11628,7 +11628,7 @@
         <v>605</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>13</v>
@@ -11649,7 +11649,7 @@
         <v>45924</v>
       </c>
       <c r="J292" s="5">
-        <v>45954</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
     <row r="293" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11660,7 +11660,7 @@
         <v>607</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D293" s="10" t="s">
         <v>13</v>
@@ -11681,7 +11681,7 @@
         <v>45925</v>
       </c>
       <c r="J293" s="11">
-        <v>45955</v>
+        <v>45934.463360891205</v>
       </c>
     </row>
   </sheetData>
